--- a/data/db/asset_classes.xlsx
+++ b/data/db/asset_classes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\app\data\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FD652D-EC73-4D1B-BC03-54EB4CA3C779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD29F6D-A867-4405-803B-ADF04238F87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,15 +380,15 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -404,7 +404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
